--- a/mosip_master/xlsx/module_detail.xlsx
+++ b/mosip_master/xlsx/module_detail.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18350" windowHeight="6920"/>
+    <workbookView windowWidth="23040" windowHeight="8555"/>
   </bookViews>
   <sheets>
     <sheet name="module_detail" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="65">
   <si>
     <t>id</t>
   </si>
@@ -44,6 +44,24 @@
     <t>is_active</t>
   </si>
   <si>
+    <t>cr_by</t>
+  </si>
+  <si>
+    <t>cr_dtimes</t>
+  </si>
+  <si>
+    <t>upd_by</t>
+  </si>
+  <si>
+    <t>upd_dtimes</t>
+  </si>
+  <si>
+    <t>is_deleted</t>
+  </si>
+  <si>
+    <t>del_dtimes</t>
+  </si>
+  <si>
     <t>Pre-Registration</t>
   </si>
   <si>
@@ -53,6 +71,15 @@
     <t>eng</t>
   </si>
   <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>System</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
     <t>Registration Client</t>
   </si>
   <si>
@@ -122,19 +149,13 @@
     <t>पोस्ट आईडी जनरेशन सेवाओं के लिए वेब पोर्टल</t>
   </si>
   <si>
-    <t>10001</t>
-  </si>
-  <si>
     <t>Preinscripción</t>
   </si>
   <si>
     <t>Portal web para preinscripciones</t>
   </si>
   <si>
-    <t>spa</t>
-  </si>
-  <si>
-    <t>10002</t>
+    <t>es</t>
   </si>
   <si>
     <t>Cliente de registro</t>
@@ -143,34 +164,22 @@
     <t>Aplicación de escritorio para Inscripciones</t>
   </si>
   <si>
-    <t>10003</t>
-  </si>
-  <si>
     <t>Procesador de registro</t>
   </si>
   <si>
     <t>Solicitud de proceso post-registro</t>
   </si>
   <si>
-    <t>10004</t>
-  </si>
-  <si>
     <t>Autenticación de identificación</t>
   </si>
   <si>
     <t>Solicitud de autenticación de proveedor de servicios de terceros</t>
   </si>
   <si>
-    <t>10005</t>
-  </si>
-  <si>
     <t>Control de identificación</t>
   </si>
   <si>
     <t>Portal web para configuración de aplicaciones.</t>
-  </si>
-  <si>
-    <t>10006</t>
   </si>
   <si>
     <t>Portal para residentes</t>
@@ -225,25 +234,12 @@
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <charset val="1"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -711,158 +707,142 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="47" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1397,19 +1377,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.81818181818182" defaultRowHeight="14.5" outlineLevelCol="6"/>
-  <cols>
-    <col min="2" max="2" width="21.2727272727273" customWidth="1"/>
-    <col min="3" max="3" width="55.6363636363636" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1425,437 +1401,647 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2">
         <v>10001</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F2"/>
-      <c r="G2" s="2"/>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="1">
+        <v>45526.6013811123</v>
+      </c>
+      <c r="J2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3">
         <v>10002</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" t="b">
-        <v>1</v>
-      </c>
-      <c r="F3"/>
-      <c r="G3" s="2"/>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="1">
+        <v>45526.6013811123</v>
+      </c>
+      <c r="J3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4">
         <v>10003</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F4"/>
-      <c r="G4" s="2"/>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="1">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="1">
+        <v>45526.6013811123</v>
+      </c>
+      <c r="J4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5">
         <v>10004</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s">
         <v>13</v>
       </c>
-      <c r="D5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" t="b">
-        <v>1</v>
-      </c>
-      <c r="F5"/>
-      <c r="G5" s="2"/>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="1">
+      <c r="E5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="1">
+        <v>45526.6013811123</v>
+      </c>
+      <c r="J5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6">
         <v>10005</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" t="b">
-        <v>1</v>
-      </c>
-      <c r="F6"/>
-      <c r="G6" s="2"/>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="1">
+        <v>13</v>
+      </c>
+      <c r="E6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="1">
+        <v>45526.6013811123</v>
+      </c>
+      <c r="J6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7">
         <v>10006</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" t="b">
-        <v>1</v>
-      </c>
-      <c r="F7"/>
-      <c r="G7" s="2"/>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="1">
+        <v>13</v>
+      </c>
+      <c r="E7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="1">
+        <v>45526.6013811123</v>
+      </c>
+      <c r="J7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8">
         <v>10001</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" t="b">
-        <v>1</v>
-      </c>
-      <c r="F8"/>
-      <c r="G8" s="2"/>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="1">
+        <v>29</v>
+      </c>
+      <c r="E8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="1">
+        <v>45526.6013811123</v>
+      </c>
+      <c r="J8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9">
         <v>10002</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" t="b">
-        <v>1</v>
-      </c>
-      <c r="F9"/>
-      <c r="G9" s="2"/>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="1">
+        <v>29</v>
+      </c>
+      <c r="E9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="1">
+        <v>45526.6013811123</v>
+      </c>
+      <c r="J9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10">
         <v>10003</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" t="b">
-        <v>1</v>
-      </c>
-      <c r="F10"/>
-      <c r="G10" s="2"/>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="1">
+        <v>29</v>
+      </c>
+      <c r="E10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="1">
+        <v>45526.6013811123</v>
+      </c>
+      <c r="J10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11">
         <v>10004</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" t="b">
-        <v>1</v>
-      </c>
-      <c r="F11"/>
-      <c r="G11" s="2"/>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="1">
+        <v>29</v>
+      </c>
+      <c r="E11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="1">
+        <v>45526.6013811123</v>
+      </c>
+      <c r="J11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12">
         <v>10005</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="C12" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12" t="b">
-        <v>1</v>
-      </c>
-      <c r="F12"/>
-      <c r="G12" s="2"/>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="1">
+        <v>29</v>
+      </c>
+      <c r="E12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="1">
+        <v>45526.6013811123</v>
+      </c>
+      <c r="J12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13">
         <v>10006</v>
       </c>
       <c r="B13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" t="s">
         <v>29</v>
       </c>
-      <c r="C13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E13" t="b">
-        <v>1</v>
-      </c>
-      <c r="F13"/>
-      <c r="G13" s="2"/>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E14" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E15" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C16" s="4" t="s">
+      <c r="E13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" s="1">
+        <v>45526.6013811123</v>
+      </c>
+      <c r="J13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14">
+        <v>10001</v>
+      </c>
+      <c r="B14" t="s">
         <v>40</v>
       </c>
-      <c r="D16" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E16" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" ht="29" spans="1:5">
-      <c r="A17" s="3" t="s">
+      <c r="C14" t="s">
         <v>41</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="D14" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="E14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" s="1">
+        <v>45526.6013811123</v>
+      </c>
+      <c r="J14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15">
+        <v>10002</v>
+      </c>
+      <c r="B15" t="s">
         <v>43</v>
       </c>
-      <c r="D17" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E17" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="3" t="s">
+      <c r="C15" t="s">
         <v>44</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="D15" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" s="1">
+        <v>45526.6013811123</v>
+      </c>
+      <c r="J15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16">
+        <v>10003</v>
+      </c>
+      <c r="B16" t="s">
         <v>45</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C16" t="s">
         <v>46</v>
       </c>
-      <c r="D18" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E18" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="3" t="s">
+      <c r="D16" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" s="1">
+        <v>45526.6013811123</v>
+      </c>
+      <c r="J16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17">
+        <v>10004</v>
+      </c>
+      <c r="B17" t="s">
         <v>47</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="C17" t="s">
         <v>48</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="D17" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17" s="1">
+        <v>45526.6013811123</v>
+      </c>
+      <c r="J17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18">
+        <v>10005</v>
+      </c>
+      <c r="B18" t="s">
         <v>49</v>
       </c>
-      <c r="D19" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E19" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B20" s="6" t="s">
+      <c r="C18" t="s">
         <v>50</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="D18" t="s">
+        <v>42</v>
+      </c>
+      <c r="E18" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" t="s">
+        <v>15</v>
+      </c>
+      <c r="G18" s="1">
+        <v>45526.6013811123</v>
+      </c>
+      <c r="J18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19">
+        <v>10006</v>
+      </c>
+      <c r="B19" t="s">
         <v>51</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="C19" t="s">
         <v>52</v>
       </c>
-      <c r="E20" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B21" s="6" t="s">
+      <c r="D19" t="s">
+        <v>42</v>
+      </c>
+      <c r="E19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" t="s">
+        <v>15</v>
+      </c>
+      <c r="G19" s="1">
+        <v>45526.6013811123</v>
+      </c>
+      <c r="J19" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20">
+        <v>10001</v>
+      </c>
+      <c r="B20" t="s">
         <v>53</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C20" t="s">
         <v>54</v>
       </c>
-      <c r="D21" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="E21" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B22" s="6" t="s">
+      <c r="D20" t="s">
         <v>55</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="E20" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" t="s">
+        <v>15</v>
+      </c>
+      <c r="G20" s="1">
+        <v>45526.6013811123</v>
+      </c>
+      <c r="J20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21">
+        <v>10002</v>
+      </c>
+      <c r="B21" t="s">
         <v>56</v>
       </c>
-      <c r="D22" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="E22" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B23" s="6" t="s">
+      <c r="C21" t="s">
         <v>57</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="D21" t="s">
+        <v>55</v>
+      </c>
+      <c r="E21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" t="s">
+        <v>15</v>
+      </c>
+      <c r="G21" s="1">
+        <v>45526.6013811123</v>
+      </c>
+      <c r="J21" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22">
+        <v>10003</v>
+      </c>
+      <c r="B22" t="s">
         <v>58</v>
       </c>
-      <c r="D23" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="E23" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B24" s="6" t="s">
+      <c r="C22" t="s">
         <v>59</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="D22" t="s">
+        <v>55</v>
+      </c>
+      <c r="E22" t="s">
+        <v>14</v>
+      </c>
+      <c r="F22" t="s">
+        <v>15</v>
+      </c>
+      <c r="G22" s="1">
+        <v>45526.6013811123</v>
+      </c>
+      <c r="J22" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23">
+        <v>10004</v>
+      </c>
+      <c r="B23" t="s">
         <v>60</v>
       </c>
-      <c r="D24" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="E24" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B25" s="6" t="s">
+      <c r="C23" t="s">
         <v>61</v>
       </c>
-      <c r="C25" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="E25" t="b">
-        <v>1</v>
+      <c r="D23" t="s">
+        <v>55</v>
+      </c>
+      <c r="E23" t="s">
+        <v>14</v>
+      </c>
+      <c r="F23" t="s">
+        <v>15</v>
+      </c>
+      <c r="G23" s="1">
+        <v>45526.6013811123</v>
+      </c>
+      <c r="J23" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24">
+        <v>10005</v>
+      </c>
+      <c r="B24" t="s">
+        <v>62</v>
+      </c>
+      <c r="C24" t="s">
+        <v>63</v>
+      </c>
+      <c r="D24" t="s">
+        <v>55</v>
+      </c>
+      <c r="E24" t="s">
+        <v>14</v>
+      </c>
+      <c r="F24" t="s">
+        <v>15</v>
+      </c>
+      <c r="G24" s="1">
+        <v>45526.6013811123</v>
+      </c>
+      <c r="J24" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25">
+        <v>10006</v>
+      </c>
+      <c r="B25" t="s">
+        <v>64</v>
+      </c>
+      <c r="C25" t="s">
+        <v>63</v>
+      </c>
+      <c r="D25" t="s">
+        <v>55</v>
+      </c>
+      <c r="E25" t="s">
+        <v>14</v>
+      </c>
+      <c r="F25" t="s">
+        <v>15</v>
+      </c>
+      <c r="G25" s="1">
+        <v>45526.6013811123</v>
+      </c>
+      <c r="J25" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
